--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="217">
   <si>
     <t>时间</t>
   </si>
@@ -718,6 +718,22 @@
   <si>
     <t>83.7
 刚经过5.1的大吃大喝，哈哈</t>
+  </si>
+  <si>
+    <t>西红柿肥牛汤 + 米饭 + 南瓜</t>
+  </si>
+  <si>
+    <t>大骨头汤</t>
+  </si>
+  <si>
+    <t>83.2
+继续加油</t>
+  </si>
+  <si>
+    <t>肉丸子 + 米饭 + 大头菜 + 蔬菜沙拉</t>
+  </si>
+  <si>
+    <t>和熊俊一起吃饭</t>
   </si>
 </sst>
 </file>
@@ -896,12 +912,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1687,10 +1703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3499,7 +3515,9 @@
       <c r="B91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3511,15 +3529,71 @@
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3">
+        <v>45784</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" ht="37.5" spans="1:8">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -3550,6 +3624,7 @@
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -3578,6 +3653,7 @@
     <mergeCell ref="H84:H86"/>
     <mergeCell ref="H87:H89"/>
     <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H93:H95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
   <si>
     <t>时间</t>
   </si>
@@ -734,6 +734,15 @@
   </si>
   <si>
     <t>和熊俊一起吃饭</t>
+  </si>
+  <si>
+    <t>玉米半根</t>
+  </si>
+  <si>
+    <t>85.6加油小胖子</t>
+  </si>
+  <si>
+    <t>西红柿2个 + 半个玉米 + xx</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3592,8 +3601,70 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="3">
+        <v>45811</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" ht="37.5" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="62">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -3625,6 +3696,7 @@
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A97:A99"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -3654,6 +3726,7 @@
     <mergeCell ref="H87:H89"/>
     <mergeCell ref="H90:H92"/>
     <mergeCell ref="H93:H95"/>
+    <mergeCell ref="H97:H99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="230">
   <si>
     <t>时间</t>
   </si>
@@ -743,6 +743,36 @@
   </si>
   <si>
     <t>西红柿2个 + 半个玉米 + xx</t>
+  </si>
+  <si>
+    <t>83.9加油小胖子</t>
+  </si>
+  <si>
+    <t>勇，强，经，一起在曾牛肉吃饭</t>
+  </si>
+  <si>
+    <t>生活化</t>
+  </si>
+  <si>
+    <t>荞麦面 + 1.5鸡蛋 + 西红柿 + 西兰花</t>
+  </si>
+  <si>
+    <t>西兰花 + 西红柿</t>
+  </si>
+  <si>
+    <t>比较满意，蔬菜少1/4</t>
+  </si>
+  <si>
+    <t>83.5加油小胖子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东北菜 蘸酱菜 + 韭菜鸡蛋饺子 </t>
+  </si>
+  <si>
+    <t>没吃</t>
+  </si>
+  <si>
+    <t>83.5加油小胖子，距离80kg的目标越来越近了</t>
   </si>
 </sst>
 </file>
@@ -1712,10 +1742,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3637,7 +3667,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" ht="37.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>16</v>
@@ -3663,8 +3693,156 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" ht="37.5" spans="1:8">
+      <c r="A103" s="3">
+        <v>45813</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3">
+        <v>45814</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="68">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -3697,6 +3875,9 @@
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -3727,6 +3908,9 @@
     <mergeCell ref="H90:H92"/>
     <mergeCell ref="H93:H95"/>
     <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H106:H108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="236">
   <si>
     <t>时间</t>
   </si>
@@ -772,7 +772,25 @@
     <t>没吃</t>
   </si>
   <si>
-    <t>83.5加油小胖子，距离80kg的目标越来越近了</t>
+    <t>西红柿2 + 玉米一半 + 鸡蛋2</t>
+  </si>
+  <si>
+    <t>很满意</t>
+  </si>
+  <si>
+    <t>83.2加油小胖子，距离80kg的目标越来越近了</t>
+  </si>
+  <si>
+    <t>三桔健康餐</t>
+  </si>
+  <si>
+    <t>牛肉 + 鸡蛋 + 鱼</t>
+  </si>
+  <si>
+    <t>土豆2个</t>
+  </si>
+  <si>
+    <t>西红柿2 + 半截玉米 + 牛肉</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1763,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3808,13 +3826,17 @@
       <c r="B106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H106" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3822,11 +3844,21 @@
       <c r="B107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="C107" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8">
@@ -3834,11 +3866,15 @@
       <c r="B108" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H108" s="4"/>
     </row>
   </sheetData>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="238">
   <si>
     <t>时间</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>西红柿2 + 半截玉米 + 牛肉</t>
+  </si>
+  <si>
+    <t>西红柿1 + 玉米1/3 + 鸡蛋1</t>
+  </si>
+  <si>
+    <t>84kg 上周已减肥了5.2斤，这周的目标是4斤，继续加油，你最棒。</t>
   </si>
 </sst>
 </file>
@@ -1760,10 +1766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3877,8 +3883,52 @@
       </c>
       <c r="H108" s="4"/>
     </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="3">
+        <v>45817</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="70">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -3914,6 +3964,7 @@
     <mergeCell ref="A100:A102"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -3947,6 +3998,7 @@
     <mergeCell ref="H100:H102"/>
     <mergeCell ref="H103:H105"/>
     <mergeCell ref="H106:H108"/>
+    <mergeCell ref="H109:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="243">
   <si>
     <t>时间</t>
   </si>
@@ -797,6 +797,21 @@
   </si>
   <si>
     <t>84kg 上周已减肥了5.2斤，这周的目标是4斤，继续加油，你最棒。</t>
+  </si>
+  <si>
+    <t>烫青菜 + 5个水煎包 + 鸡蛋1个半</t>
+  </si>
+  <si>
+    <t>不是很满意，但是很生活化</t>
+  </si>
+  <si>
+    <t>81.95kg 继续加油</t>
+  </si>
+  <si>
+    <t>鹅肉/杂碎 + 白菜 + 南瓜 + 一点水果</t>
+  </si>
+  <si>
+    <t>81.45kg 继续加油</t>
   </si>
 </sst>
 </file>
@@ -1516,6 +1531,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1766,10 +1788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3927,8 +3949,140 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="3">
+        <v>45817</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="3">
+        <v>45822</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" ht="37.5" spans="1:8">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="3">
+        <v>45823</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" ht="37.5" spans="1:8">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="76">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -3965,6 +4119,9 @@
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="A106:A108"/>
     <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -3999,6 +4156,9 @@
     <mergeCell ref="H103:H105"/>
     <mergeCell ref="H106:H108"/>
     <mergeCell ref="H109:H111"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="H118:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25068" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="247">
   <si>
     <t>时间</t>
   </si>
@@ -811,7 +811,19 @@
     <t>鹅肉/杂碎 + 白菜 + 南瓜 + 一点水果</t>
   </si>
   <si>
-    <t>81.45kg 继续加油</t>
+    <t>烧饼 + 西红柿1个</t>
+  </si>
+  <si>
+    <t>81.45kg 继续加油，相信你自己</t>
+  </si>
+  <si>
+    <t>鸡蛋2+南瓜+土豆+西红柿2</t>
+  </si>
+  <si>
+    <t>80.9kg 第一次80开头了，继续加油</t>
+  </si>
+  <si>
+    <t>荞麦面 + 牛肉丸子 + 大白菜</t>
   </si>
 </sst>
 </file>
@@ -990,12 +1002,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1788,20 +1800,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -2243,7 +2255,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="37.5" spans="1:8">
+    <row r="21" ht="34.8" spans="1:8">
       <c r="A21" s="3">
         <v>45757</v>
       </c>
@@ -2291,7 +2303,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" ht="37.5" spans="1:8">
+    <row r="23" ht="34.8" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2661,7 +2673,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" ht="37.5" spans="1:8">
+    <row r="42" ht="34.8" spans="1:8">
       <c r="A42" s="3">
         <v>45764</v>
       </c>
@@ -3055,7 +3067,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" ht="37.5" spans="1:8">
+    <row r="66" ht="34.8" spans="1:8">
       <c r="A66" s="3">
         <v>45772</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" ht="37.5" spans="1:8">
+    <row r="76" ht="34.8" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>16</v>
@@ -3325,7 +3337,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" ht="37.5" spans="1:8">
+    <row r="78" ht="34.8" spans="1:8">
       <c r="A78" s="3">
         <v>45777</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" ht="37.5" spans="1:8">
+    <row r="82" ht="34.8" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>16</v>
@@ -3487,7 +3499,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" ht="37.5" spans="1:8">
+    <row r="86" ht="34.8" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3535,7 +3547,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" ht="37.5" spans="1:8">
+    <row r="88" ht="34.8" spans="1:8">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>16</v>
@@ -3649,7 +3661,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" ht="37.5" spans="1:8">
+    <row r="94" ht="34.8" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>16</v>
@@ -3793,7 +3805,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" ht="37.5" spans="1:8">
+    <row r="103" ht="34.8" spans="1:8">
       <c r="A103" s="3">
         <v>45813</v>
       </c>
@@ -4027,7 +4039,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" ht="37.5" spans="1:8">
+    <row r="117" ht="34.8" spans="1:8">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>19</v>
@@ -4043,18 +4055,20 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="3">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="5"/>
+      <c r="C118" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4062,27 +4076,117 @@
       <c r="B119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" ht="37.5" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="5"/>
+      <c r="C120" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="3">
+        <v>45825</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="3">
+        <v>45826</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="80">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4122,6 +4226,8 @@
     <mergeCell ref="A112:A114"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4159,6 +4265,8 @@
     <mergeCell ref="H112:H114"/>
     <mergeCell ref="H115:H117"/>
     <mergeCell ref="H118:H120"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="H124:H126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4176,7 +4284,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4193,7 +4301,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="249">
   <si>
     <t>时间</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>荞麦面 + 牛肉丸子 + 大白菜</t>
+  </si>
+  <si>
+    <t>83.6kg继续加油</t>
+  </si>
+  <si>
+    <t>米饭饼 + 翘脚牛肉 + 大头菜</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1808,8 @@
   <sheetPr/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4147,7 +4153,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="3">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>12</v>
@@ -4158,19 +4164,27 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8">

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="253">
   <si>
     <t>时间</t>
   </si>
@@ -830,6 +830,18 @@
   </si>
   <si>
     <t>米饭饼 + 翘脚牛肉 + 大头菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 猪脚饭 + 少米 + 多采</t>
+  </si>
+  <si>
+    <t>比较满意，生活化</t>
+  </si>
+  <si>
+    <t>荞麦面 + 牛肉丸子 + 空心菜</t>
+  </si>
+  <si>
+    <t>83.1kg继续加油</t>
   </si>
 </sst>
 </file>
@@ -1008,12 +1020,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1806,10 +1818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4192,15 +4204,65 @@
       <c r="B126" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="H126" s="4"/>
     </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="3">
+        <v>45831</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="82">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4242,6 +4304,7 @@
     <mergeCell ref="A118:A120"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A129"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4281,6 +4344,7 @@
     <mergeCell ref="H118:H120"/>
     <mergeCell ref="H121:H123"/>
     <mergeCell ref="H124:H126"/>
+    <mergeCell ref="H127:H129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="261">
   <si>
     <t>时间</t>
   </si>
@@ -842,6 +842,30 @@
   </si>
   <si>
     <t>83.1kg继续加油</t>
+  </si>
+  <si>
+    <t>莴笋丝鸡蛋、小白菜，黑米饭，冬瓜排骨汤，豆角凉拌</t>
+  </si>
+  <si>
+    <t>鸡蛋 + 排骨</t>
+  </si>
+  <si>
+    <t>黑米饭</t>
+  </si>
+  <si>
+    <t>小白菜 + 莴笋丝 + 豆角</t>
+  </si>
+  <si>
+    <t>蒜泥花甲 + 辣炒蛏子 + 米饭</t>
+  </si>
+  <si>
+    <t>1.5馒头，鱼香肉丝，见手青</t>
+  </si>
+  <si>
+    <t>不满意，蛋白质有点少</t>
+  </si>
+  <si>
+    <t>82.3kg继续加油</t>
   </si>
 </sst>
 </file>
@@ -1818,10 +1842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4235,18 +4259,26 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" ht="34.8" spans="1:8">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8">
@@ -4254,15 +4286,63 @@
       <c r="B129" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="H129" s="4"/>
     </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="3">
+        <v>45831</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="84">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4305,6 +4385,7 @@
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="A124:A126"/>
     <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A130:A132"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4345,6 +4426,7 @@
     <mergeCell ref="H121:H123"/>
     <mergeCell ref="H124:H126"/>
     <mergeCell ref="H127:H129"/>
+    <mergeCell ref="H130:H132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25068" windowHeight="13380"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="269">
   <si>
     <t>时间</t>
   </si>
@@ -866,6 +866,30 @@
   </si>
   <si>
     <t>82.3kg继续加油</t>
+  </si>
+  <si>
+    <t>荞麦面 + 鱼蛋 + 黄瓜</t>
+  </si>
+  <si>
+    <t>不满意，蔬菜有点少</t>
+  </si>
+  <si>
+    <t>81.8kg继续加油</t>
+  </si>
+  <si>
+    <t>吃了两片奶香锅巴</t>
+  </si>
+  <si>
+    <t>不满意，早上没咋吃</t>
+  </si>
+  <si>
+    <t>菠菜  + 白菜 + 鹅肉 + 杂粮馒头</t>
+  </si>
+  <si>
+    <t>1.7馒头 + 雪糕 + 水煮菜 + 牛肉</t>
+  </si>
+  <si>
+    <t>不太满意，吃了雪糕和炸鱼</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4299,7 +4323,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>12</v>
@@ -4341,8 +4365,104 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="3">
+        <v>45835</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="3">
+        <v>45838</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="88">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4386,6 +4506,8 @@
     <mergeCell ref="A124:A126"/>
     <mergeCell ref="A127:A129"/>
     <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4427,6 +4549,8 @@
     <mergeCell ref="H124:H126"/>
     <mergeCell ref="H127:H129"/>
     <mergeCell ref="H130:H132"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="H136:H138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="25068" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
   <si>
     <t>时间</t>
   </si>
@@ -890,6 +890,13 @@
   </si>
   <si>
     <t>不太满意，吃了雪糕和炸鱼</t>
+  </si>
+  <si>
+    <t>杂粮馒头 + 莲白+ 卤牛肉</t>
+  </si>
+  <si>
+    <t>82.1kg
+相信很快能到80kg的</t>
   </si>
 </sst>
 </file>
@@ -1068,12 +1075,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1866,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4461,8 +4468,52 @@
       </c>
       <c r="H138" s="4"/>
     </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="90">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4508,6 +4559,7 @@
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A141"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4551,6 +4603,7 @@
     <mergeCell ref="H130:H132"/>
     <mergeCell ref="H133:H135"/>
     <mergeCell ref="H136:H138"/>
+    <mergeCell ref="H139:H141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25068" windowHeight="13380"/>
+    <workbookView windowWidth="20616" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="279">
   <si>
     <t>时间</t>
   </si>
@@ -897,6 +897,30 @@
   <si>
     <t>82.1kg
 相信很快能到80kg的</t>
+  </si>
+  <si>
+    <t>刘仪碗</t>
+  </si>
+  <si>
+    <t>腊肉饭</t>
+  </si>
+  <si>
+    <t>黄瓜和土豆</t>
+  </si>
+  <si>
+    <t>牛肉荞麦面条 + 小白菜</t>
+  </si>
+  <si>
+    <t>水煮白菜</t>
+  </si>
+  <si>
+    <t>鸡蛋2 西红柿1 半个玉米</t>
+  </si>
+  <si>
+    <t>一点南瓜</t>
+  </si>
+  <si>
+    <t>混合蔬菜</t>
   </si>
 </sst>
 </file>
@@ -1616,13 +1640,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1873,10 +1890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4493,11 +4510,21 @@
       <c r="B140" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="C140" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8">
@@ -4505,15 +4532,79 @@
       <c r="B141" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="C141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H141" s="4"/>
     </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="92">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4560,6 +4651,7 @@
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A138"/>
     <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4604,6 +4696,7 @@
     <mergeCell ref="H133:H135"/>
     <mergeCell ref="H136:H138"/>
     <mergeCell ref="H139:H141"/>
+    <mergeCell ref="H142:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20616" windowHeight="8904"/>
+    <workbookView windowWidth="25068" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="281">
   <si>
     <t>时间</t>
   </si>
@@ -921,6 +921,13 @@
   </si>
   <si>
     <t>混合蔬菜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小葱肉饼 + 大黄瓜1 </t>
+  </si>
+  <si>
+    <t>83.4kg
+相信很快能到80kg的</t>
   </si>
 </sst>
 </file>
@@ -1099,12 +1106,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1890,10 +1897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4551,7 +4558,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="3">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>12</v>
@@ -4603,8 +4610,52 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="3">
+        <v>45846</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="94">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4652,6 +4703,7 @@
     <mergeCell ref="A136:A138"/>
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4697,6 +4749,7 @@
     <mergeCell ref="H136:H138"/>
     <mergeCell ref="H139:H141"/>
     <mergeCell ref="H142:H144"/>
+    <mergeCell ref="H145:H147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="286">
   <si>
     <t>时间</t>
   </si>
@@ -928,6 +928,22 @@
   <si>
     <t>83.4kg
 相信很快能到80kg的</t>
+  </si>
+  <si>
+    <t>鸡腿1+ 一点红烧肉</t>
+  </si>
+  <si>
+    <t>荞麦面 + 西红柿 + 鸡肉 + 大白菜 + 红肠</t>
+  </si>
+  <si>
+    <t>鸡肉 + 红肠</t>
+  </si>
+  <si>
+    <t>西红柿 + 大白菜</t>
+  </si>
+  <si>
+    <t>83.1kg
+争取明天到82.5kg</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +1913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4635,27 +4651,99 @@
       <c r="B146" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="C146" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" ht="34.8" spans="1:8">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="C147" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H147" s="4"/>
     </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="96">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4704,6 +4792,7 @@
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="A142:A144"/>
     <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A148:A150"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4750,6 +4839,7 @@
     <mergeCell ref="H139:H141"/>
     <mergeCell ref="H142:H144"/>
     <mergeCell ref="H145:H147"/>
+    <mergeCell ref="H148:H150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25068" windowHeight="14088"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="293">
   <si>
     <t>时间</t>
   </si>
@@ -944,6 +944,28 @@
   <si>
     <t>83.1kg
 争取明天到82.5kg</t>
+  </si>
+  <si>
+    <t>西兰花五花肉 米饭 黄瓜 肉丸子</t>
+  </si>
+  <si>
+    <t>吃了个肉丸子，菜需要过下水</t>
+  </si>
+  <si>
+    <t>米饭一碗 + 西红柿1  + 红肠1截</t>
+  </si>
+  <si>
+    <t>红肠淀粉多</t>
+  </si>
+  <si>
+    <t>牛肉蒸饺 + 汤</t>
+  </si>
+  <si>
+    <t>热量高，中午少吃点</t>
+  </si>
+  <si>
+    <t>82.75kg
+争取明天到82kg</t>
   </si>
 </sst>
 </file>
@@ -1913,10 +1935,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151:H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4722,12 +4744,14 @@
         <v>16</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="G149" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8">
@@ -4735,15 +4759,63 @@
       <c r="B150" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="G150" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="H150" s="4"/>
     </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="98">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4793,6 +4865,7 @@
     <mergeCell ref="A142:A144"/>
     <mergeCell ref="A145:A147"/>
     <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A153"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4840,6 +4913,7 @@
     <mergeCell ref="H142:H144"/>
     <mergeCell ref="H145:H147"/>
     <mergeCell ref="H148:H150"/>
+    <mergeCell ref="H151:H153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowWidth="25068" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="298">
   <si>
     <t>时间</t>
   </si>
@@ -966,6 +966,21 @@
   <si>
     <t>82.75kg
 争取明天到82kg</t>
+  </si>
+  <si>
+    <t>蒸排骨 + 海带 + 米饭 + 豆皮</t>
+  </si>
+  <si>
+    <t>中午有点吃多了</t>
+  </si>
+  <si>
+    <t>大头菜 + 蒸饺 + 半截香肠</t>
+  </si>
+  <si>
+    <t>牛肉蒸饺7个 + 小米粥</t>
+  </si>
+  <si>
+    <t>有点撑，中午少吃点</t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1950,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151:H153"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4795,11 +4810,15 @@
       <c r="B152" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:8">
@@ -4807,15 +4826,63 @@
       <c r="B153" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="G153" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H153" s="4"/>
     </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="3">
+        <v>45849</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="100">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4866,6 +4933,7 @@
     <mergeCell ref="A145:A147"/>
     <mergeCell ref="A148:A150"/>
     <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A154:A156"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4914,6 +4982,7 @@
     <mergeCell ref="H145:H147"/>
     <mergeCell ref="H148:H150"/>
     <mergeCell ref="H151:H153"/>
+    <mergeCell ref="H154:H156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="303">
   <si>
     <t>时间</t>
   </si>
@@ -981,6 +981,22 @@
   </si>
   <si>
     <t>有点撑，中午少吃点</t>
+  </si>
+  <si>
+    <t>荞麦面 + 鸡肉丸子蟹棒 + 白菜</t>
+  </si>
+  <si>
+    <t>鸡肉丸子蟹棒</t>
+  </si>
+  <si>
+    <t>大白菜</t>
+  </si>
+  <si>
+    <t>很满意，加油！</t>
+  </si>
+  <si>
+    <t>83kg
+争取这周到82kg</t>
   </si>
 </sst>
 </file>
@@ -1950,10 +1966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+      <selection activeCell="H157" sqref="H157:H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4881,8 +4897,58 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="3">
+        <v>45854</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="102">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -4934,6 +5000,7 @@
     <mergeCell ref="A148:A150"/>
     <mergeCell ref="A151:A153"/>
     <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A157:A159"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -4983,6 +5050,7 @@
     <mergeCell ref="H148:H150"/>
     <mergeCell ref="H151:H153"/>
     <mergeCell ref="H154:H156"/>
+    <mergeCell ref="H157:H159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25068" windowHeight="14088"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="310">
   <si>
     <t>时间</t>
   </si>
@@ -997,6 +997,30 @@
   <si>
     <t>83kg
 争取这周到82kg</t>
+  </si>
+  <si>
+    <t>鸡蛋2 西红柿2 南瓜4块</t>
+  </si>
+  <si>
+    <t>84kg
+争取这周到83kg</t>
+  </si>
+  <si>
+    <t>杂粮馒头2 + 炒花菜/空心菜 + 卤牛肉</t>
+  </si>
+  <si>
+    <t>馒头太好吃了，
+多吃了一个杂粮馒头</t>
+  </si>
+  <si>
+    <t>豆腐菜 + 炸丸子 + 半个杂粮馒头 + 牛肉</t>
+  </si>
+  <si>
+    <t>比较满意，菜有点少</t>
+  </si>
+  <si>
+    <t>83.2kg
+争取本周到82.5kg</t>
   </si>
 </sst>
 </file>
@@ -1175,12 +1199,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1966,20 +1990,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157:H159"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8833333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -2421,7 +2445,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="34.8" spans="1:8">
+    <row r="21" ht="37.5" spans="1:8">
       <c r="A21" s="3">
         <v>45757</v>
       </c>
@@ -2469,7 +2493,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" ht="34.8" spans="1:8">
+    <row r="23" ht="37.5" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2839,7 +2863,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" ht="34.8" spans="1:8">
+    <row r="42" ht="37.5" spans="1:8">
       <c r="A42" s="3">
         <v>45764</v>
       </c>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" ht="34.8" spans="1:8">
+    <row r="66" ht="37.5" spans="1:8">
       <c r="A66" s="3">
         <v>45772</v>
       </c>
@@ -3459,7 +3483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" ht="34.8" spans="1:8">
+    <row r="76" ht="37.5" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>16</v>
@@ -3503,7 +3527,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" ht="34.8" spans="1:8">
+    <row r="78" ht="37.5" spans="1:8">
       <c r="A78" s="3">
         <v>45777</v>
       </c>
@@ -3579,7 +3603,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" ht="34.8" spans="1:8">
+    <row r="82" ht="37.5" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>16</v>
@@ -3665,7 +3689,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" ht="34.8" spans="1:8">
+    <row r="86" ht="37.5" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3713,7 +3737,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" ht="34.8" spans="1:8">
+    <row r="88" ht="37.5" spans="1:8">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>16</v>
@@ -3827,7 +3851,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" ht="34.8" spans="1:8">
+    <row r="94" ht="37.5" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>16</v>
@@ -3971,7 +3995,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" ht="34.8" spans="1:8">
+    <row r="103" ht="37.5" spans="1:8">
       <c r="A103" s="3">
         <v>45813</v>
       </c>
@@ -4205,7 +4229,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" ht="34.8" spans="1:8">
+    <row r="117" ht="37.5" spans="1:8">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>19</v>
@@ -4383,7 +4407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" ht="34.8" spans="1:8">
+    <row r="128" ht="37.5" spans="1:8">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>16</v>
@@ -4721,7 +4745,7 @@
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" ht="34.8" spans="1:8">
+    <row r="147" ht="37.5" spans="1:8">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>19</v>
@@ -4947,8 +4971,254 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="3">
+        <v>45895</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" ht="37.5" spans="1:8">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" ht="37.5" spans="1:8">
+      <c r="A163" s="3">
+        <v>45896</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="3">
+        <v>45897</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="3">
+        <v>45898</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="3">
+        <v>45899</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="114">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5001,6 +5271,12 @@
     <mergeCell ref="A151:A153"/>
     <mergeCell ref="A154:A156"/>
     <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -5051,6 +5327,12 @@
     <mergeCell ref="H151:H153"/>
     <mergeCell ref="H154:H156"/>
     <mergeCell ref="H157:H159"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="H175:H177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5068,7 +5350,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5085,7 +5367,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="310">
   <si>
     <t>时间</t>
   </si>
@@ -1013,14 +1013,14 @@
 多吃了一个杂粮馒头</t>
   </si>
   <si>
-    <t>豆腐菜 + 炸丸子 + 半个杂粮馒头 + 牛肉</t>
-  </si>
-  <si>
-    <t>比较满意，菜有点少</t>
-  </si>
-  <si>
-    <t>83.2kg
-争取本周到82.5kg</t>
+    <t>鸡蛋2 西红柿2 2/3玉米</t>
+  </si>
+  <si>
+    <t>2/3玉米</t>
+  </si>
+  <si>
+    <t>85.2kg
+争取本周到83kg</t>
   </si>
 </sst>
 </file>
@@ -1199,12 +1199,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1992,8 +1992,10 @@
   <sheetPr/>
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5021,9 +5023,9 @@
       </c>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" ht="37.5" spans="1:8">
+    <row r="163" spans="1:8">
       <c r="A163" s="3">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>12</v>
@@ -5031,11 +5033,17 @@
       <c r="C163" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G163" s="4" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>309</v>
@@ -5067,7 +5075,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="3">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>12</v>
@@ -5105,7 +5113,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="3">
-        <v>45898</v>
+        <v>45917</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>12</v>
@@ -5143,7 +5151,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3">
-        <v>45899</v>
+        <v>45918</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>12</v>
@@ -5181,7 +5189,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="3">
-        <v>45900</v>
+        <v>45919</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>12</v>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="319">
   <si>
     <t>时间</t>
   </si>
@@ -1013,14 +1013,42 @@
 多吃了一个杂粮馒头</t>
   </si>
   <si>
-    <t>鸡蛋2 西红柿2 2/3玉米</t>
-  </si>
-  <si>
-    <t>2/3玉米</t>
-  </si>
-  <si>
-    <t>85.2kg
-争取本周到83kg</t>
+    <t>荞麦面 + 鸡蛋2 + 菠菜</t>
+  </si>
+  <si>
+    <t>菠菜</t>
+  </si>
+  <si>
+    <t>非常满意，节后恢复的第一天</t>
+  </si>
+  <si>
+    <t>87.5kg
+争取本周到85kg</t>
+  </si>
+  <si>
+    <t>还行，强哥来成都聚聚</t>
+  </si>
+  <si>
+    <t>鸡腿1 + 菠菜煎饼果子 + 多生菜</t>
+  </si>
+  <si>
+    <t>鸡蛋1 鸡腿1</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>比较满意，很生活化，下次不加肠</t>
+  </si>
+  <si>
+    <t>黄瓜炒鸡蛋 + 炒白菜 + 荞麦面</t>
+  </si>
+  <si>
+    <t>白菜 + 黄瓜</t>
+  </si>
+  <si>
+    <t>86.30kg
+争取本周到85kg</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2023,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -2006,7 +2034,7 @@
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.8833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -5025,7 +5053,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="3">
-        <v>45915</v>
+        <v>45939</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>12</v>
@@ -5037,16 +5065,16 @@
         <v>97</v>
       </c>
       <c r="E163" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G163" s="4" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5054,11 +5082,15 @@
       <c r="B164" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
+      <c r="G164" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8">
@@ -5066,33 +5098,52 @@
       <c r="B165" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="4"/>
+      <c r="C165" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="3">
-        <v>45916</v>
+        <v>45940</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="5"/>
+      <c r="C166" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="5"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -5113,7 +5164,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="3">
-        <v>45917</v>
+        <v>45941</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>12</v>
@@ -5151,7 +5202,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3">
-        <v>45918</v>
+        <v>45942</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>12</v>
@@ -5189,7 +5240,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="3">
-        <v>45919</v>
+        <v>45943</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>12</v>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="326">
   <si>
     <t>时间</t>
   </si>
@@ -1049,6 +1049,28 @@
   <si>
     <t>86.30kg
 争取本周到85kg</t>
+  </si>
+  <si>
+    <t>半截玉米 + 鸡蛋2 + 西红柿1</t>
+  </si>
+  <si>
+    <t>半截玉米</t>
+  </si>
+  <si>
+    <t>86.15kg
+争取本周到84kg</t>
+  </si>
+  <si>
+    <t>鸡蛋1 + 鸡腿</t>
+  </si>
+  <si>
+    <t>土豆1.5 西红柿2 + 鸡腿1 + 鸡蛋1</t>
+  </si>
+  <si>
+    <t>土豆1.5个</t>
+  </si>
+  <si>
+    <t>很满意，生活化！</t>
   </si>
 </sst>
 </file>
@@ -2020,10 +2042,10 @@
   <sheetPr/>
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5164,28 +5186,50 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="3">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="5"/>
+      <c r="C169" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
+      <c r="C170" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8">
@@ -5193,16 +5237,26 @@
       <c r="B171" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
+      <c r="C171" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="3">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>12</v>
@@ -5240,7 +5294,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="3">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>12</v>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="329">
   <si>
     <t>时间</t>
   </si>
@@ -1071,6 +1071,16 @@
   </si>
   <si>
     <t>很满意，生活化！</t>
+  </si>
+  <si>
+    <t>小白菜 + 荞麦面 + 鸡蛋2</t>
+  </si>
+  <si>
+    <t>85.5kg
+争取本周到84kg</t>
+  </si>
+  <si>
+    <t>中午继续减脂餐</t>
   </si>
 </sst>
 </file>
@@ -2043,9 +2053,9 @@
   <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5261,12 +5271,24 @@
       <c r="B172" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="5"/>
+      <c r="C172" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4"/>
@@ -5277,7 +5299,9 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
+      <c r="G173" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8">

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="341">
   <si>
     <t>时间</t>
   </si>
@@ -1080,7 +1080,44 @@
 争取本周到84kg</t>
   </si>
   <si>
-    <t>中午继续减脂餐</t>
+    <t>西兰花 + 鸡腿肉 + 莴笋鸡蛋</t>
+  </si>
+  <si>
+    <t>鸡蛋 + 鸡腿肉</t>
+  </si>
+  <si>
+    <t>杂粮饭</t>
+  </si>
+  <si>
+    <t>西兰花+ 莴笋</t>
+  </si>
+  <si>
+    <t>卤蛋1 鸡腿1 西红柿1 玉米1</t>
+  </si>
+  <si>
+    <t>卤蛋1 鸡腿1</t>
+  </si>
+  <si>
+    <t>比较满意，再多点蔬菜更好</t>
+  </si>
+  <si>
+    <t>白菜 + 荞麦面 + 鸡蛋紫菜</t>
+  </si>
+  <si>
+    <t>比较满意，再多点蛋白质更好</t>
+  </si>
+  <si>
+    <t>85.15kg
+争取本周到84kg</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>很满意，土豆很吸油脂</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2089,10 @@
   <sheetPr/>
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5295,12 +5332,20 @@
       <c r="B173" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="C173" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="G173" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H173" s="4"/>
     </row>
@@ -5309,11 +5354,21 @@
       <c r="B174" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+      <c r="C174" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8">
@@ -5323,23 +5378,45 @@
       <c r="B175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="5"/>
+      <c r="C175" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
+      <c r="C176" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8">

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="353">
   <si>
     <t>时间</t>
   </si>
@@ -1118,6 +1118,43 @@
   </si>
   <si>
     <t>很满意，土豆很吸油脂</t>
+  </si>
+  <si>
+    <t>素颜轻食 香菜拌牛肉</t>
+  </si>
+  <si>
+    <t>黑麦面</t>
+  </si>
+  <si>
+    <t>西红柿 + 混合蔬菜</t>
+  </si>
+  <si>
+    <t>鲍鱼小米粥 + 黄瓜炒蛋 + 炒白菜+馒头</t>
+  </si>
+  <si>
+    <t>鸡蛋+猪肉</t>
+  </si>
+  <si>
+    <t>小米粥 + 馒头</t>
+  </si>
+  <si>
+    <t>黄瓜 + 白菜</t>
+  </si>
+  <si>
+    <t>比较满意，小米粥不太好</t>
+  </si>
+  <si>
+    <t>84.8kg
+争取本周到84kg</t>
+  </si>
+  <si>
+    <t>隆江猪脚饭</t>
+  </si>
+  <si>
+    <t>合成牛肉 + 鸡腿</t>
+  </si>
+  <si>
+    <t>比较满意，合成牛肉不太好</t>
   </si>
 </sst>
 </file>
@@ -2087,12 +2124,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5424,15 +5461,123 @@
       <c r="B177" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
+      <c r="C177" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H177" s="4"/>
     </row>
+    <row r="178" ht="37.5" spans="1:8">
+      <c r="A178" s="3">
+        <v>45946</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="3">
+        <v>45947</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="118">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5491,6 +5636,8 @@
     <mergeCell ref="A169:A171"/>
     <mergeCell ref="A172:A174"/>
     <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -5547,6 +5694,8 @@
     <mergeCell ref="H169:H171"/>
     <mergeCell ref="H172:H174"/>
     <mergeCell ref="H175:H177"/>
+    <mergeCell ref="H178:H180"/>
+    <mergeCell ref="H181:H183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="356">
   <si>
     <t>时间</t>
   </si>
@@ -1155,6 +1155,17 @@
   </si>
   <si>
     <t>比较满意，合成牛肉不太好</t>
+  </si>
+  <si>
+    <t>玉米1/3</t>
+  </si>
+  <si>
+    <t>比较满意，蛋白吃和蔬菜忘记吃了</t>
+  </si>
+  <si>
+    <t>84.95kg
+争取本周到82kg
+目标6斤</t>
   </si>
 </sst>
 </file>
@@ -1333,12 +1344,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2126,10 +2137,10 @@
   <sheetPr/>
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
+      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5540,17 +5551,29 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="3">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="5"/>
+      <c r="C181" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="365">
   <si>
     <t>时间</t>
   </si>
@@ -1166,6 +1166,35 @@
     <t>84.95kg
 争取本周到82kg
 目标6斤</t>
+  </si>
+  <si>
+    <t>土豆+杂粮饭</t>
+  </si>
+  <si>
+    <t>鸡腿 + 2个鸡蛋</t>
+  </si>
+  <si>
+    <t>一点米饭 + 一点玉米</t>
+  </si>
+  <si>
+    <t>很满意，灵活变通</t>
+  </si>
+  <si>
+    <t>黑麦面 + 鸡蛋2 + 莴笋叶</t>
+  </si>
+  <si>
+    <t>莴笋叶</t>
+  </si>
+  <si>
+    <t>很满意，配比健康</t>
+  </si>
+  <si>
+    <t>84.5kg
+争取本周到82kg
+目标6斤,加油</t>
+  </si>
+  <si>
+    <t>鸡腿 + 鸡蛋1</t>
   </si>
 </sst>
 </file>
@@ -1344,12 +1373,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2135,12 +2164,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5580,11 +5609,21 @@
       <c r="B182" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+      <c r="C182" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8">
@@ -5592,15 +5631,123 @@
       <c r="B183" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="C183" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="H183" s="4"/>
     </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="3">
+        <v>45952</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="122">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5661,6 +5808,8 @@
     <mergeCell ref="A175:A177"/>
     <mergeCell ref="A178:A180"/>
     <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -5719,6 +5868,8 @@
     <mergeCell ref="H175:H177"/>
     <mergeCell ref="H178:H180"/>
     <mergeCell ref="H181:H183"/>
+    <mergeCell ref="H184:H186"/>
+    <mergeCell ref="H187:H189"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="374">
   <si>
     <t>时间</t>
   </si>
@@ -1195,6 +1195,35 @@
   </si>
   <si>
     <t>鸡腿 + 鸡蛋1</t>
+  </si>
+  <si>
+    <t>西兰花 + 地瓜叶 + 虾 + 杂粮饭</t>
+  </si>
+  <si>
+    <t>虾</t>
+  </si>
+  <si>
+    <t>西兰花 + 地瓜叶</t>
+  </si>
+  <si>
+    <t>比较满意，虾量有点少</t>
+  </si>
+  <si>
+    <t>黄瓜1 + 花卷1 + 茶叶蛋2</t>
+  </si>
+  <si>
+    <t>茶叶蛋2</t>
+  </si>
+  <si>
+    <t>花卷1</t>
+  </si>
+  <si>
+    <t>黄瓜1</t>
+  </si>
+  <si>
+    <t>83.95kg
+争取本周到82kg
+目标6斤,加油</t>
   </si>
 </sst>
 </file>
@@ -2167,9 +2196,9 @@
   <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5701,11 +5730,21 @@
       <c r="B186" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
+      <c r="C186" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8">
@@ -5715,12 +5754,24 @@
       <c r="B187" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="5"/>
+      <c r="C187" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
   <si>
     <t>时间</t>
   </si>
@@ -1224,6 +1224,39 @@
     <t>83.95kg
 争取本周到82kg
 目标6斤,加油</t>
+  </si>
+  <si>
+    <t>莴笋丝鸡蛋 + 鸡肉 + 
+西兰花 + 杂粮饭</t>
+  </si>
+  <si>
+    <t>鸡肉 + 鸡蛋</t>
+  </si>
+  <si>
+    <t>西兰花 + 莴笋丝</t>
+  </si>
+  <si>
+    <t>土豆炖茄子 + 荞麦面 + 芹菜 + 血菜 + 鸡蛋</t>
+  </si>
+  <si>
+    <t>荞麦面 土豆炖茄子</t>
+  </si>
+  <si>
+    <t>血菜 + 芹菜</t>
+  </si>
+  <si>
+    <t>不满意，主食多了，缺少蛋白质</t>
+  </si>
+  <si>
+    <t>黄瓜1 + 花卷1 + 白水蛋2</t>
+  </si>
+  <si>
+    <t>白水蛋2</t>
+  </si>
+  <si>
+    <t>84.45kg
+争取本周到82kg
+体重所有回弹，需坚持</t>
   </si>
 </sst>
 </file>
@@ -2193,12 +2226,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5773,32 +5806,102 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" ht="37.5" spans="1:8">
       <c r="A188" s="4"/>
       <c r="B188" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
+      <c r="C188" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" ht="37.5" spans="1:8">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
+      <c r="C189" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="H189" s="4"/>
     </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="124">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5861,6 +5964,7 @@
     <mergeCell ref="A181:A183"/>
     <mergeCell ref="A184:A186"/>
     <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -5921,6 +6025,7 @@
     <mergeCell ref="H181:H183"/>
     <mergeCell ref="H184:H186"/>
     <mergeCell ref="H187:H189"/>
+    <mergeCell ref="H190:H192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="387">
   <si>
     <t>时间</t>
   </si>
@@ -1254,9 +1254,20 @@
     <t>白水蛋2</t>
   </si>
   <si>
-    <t>84.45kg
+    <t>83.45kg
 争取本周到82kg
 体重所有回弹，需坚持</t>
+  </si>
+  <si>
+    <t>西红柿2 + 白水蛋2</t>
+  </si>
+  <si>
+    <t>比较满意，配比健康</t>
+  </si>
+  <si>
+    <t>84kg
+争取本周到81.5kg
+体重回弹点，继续加油</t>
   </si>
 </sst>
 </file>
@@ -2226,12 +2237,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5852,7 +5863,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="3">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>12</v>
@@ -5876,16 +5887,26 @@
         <v>383</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" ht="37.5" spans="1:8">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
+      <c r="C191" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8">
@@ -5900,8 +5921,58 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="126">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5965,6 +6036,7 @@
     <mergeCell ref="A184:A186"/>
     <mergeCell ref="A187:A189"/>
     <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6026,6 +6098,7 @@
     <mergeCell ref="H184:H186"/>
     <mergeCell ref="H187:H189"/>
     <mergeCell ref="H190:H192"/>
+    <mergeCell ref="H193:H195"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="395">
   <si>
     <t>时间</t>
   </si>
@@ -1266,6 +1266,32 @@
   </si>
   <si>
     <t>84kg
+争取本周到81.5kg
+体重回弹点，继续加油</t>
+  </si>
+  <si>
+    <t>迪卡轻食餐</t>
+  </si>
+  <si>
+    <t>鸡排肉1 + 煎鸡蛋1</t>
+  </si>
+  <si>
+    <t>螺旋粉</t>
+  </si>
+  <si>
+    <t>混合蔬菜 + 西红柿1</t>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋 + 莴笋叶 + 荞麦面 + 牛肉</t>
+  </si>
+  <si>
+    <t>鸡蛋 + 牛肉</t>
+  </si>
+  <si>
+    <t>莴笋叶 + 西红柿</t>
+  </si>
+  <si>
+    <t>83.25kg
 争取本周到81.5kg
 体重回弹点，继续加油</t>
   </si>
@@ -2237,12 +2263,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5952,11 +5978,21 @@
       <c r="B194" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="C194" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8">
@@ -5964,15 +6000,70 @@
       <c r="B195" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="C195" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="H195" s="4"/>
     </row>
+    <row r="196" ht="37.5" spans="1:8">
+      <c r="A196" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="128">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6037,6 +6128,7 @@
     <mergeCell ref="A187:A189"/>
     <mergeCell ref="A190:A192"/>
     <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6099,6 +6191,7 @@
     <mergeCell ref="H187:H189"/>
     <mergeCell ref="H190:H192"/>
     <mergeCell ref="H193:H195"/>
+    <mergeCell ref="H196:H198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="409">
   <si>
     <t>时间</t>
   </si>
@@ -1292,8 +1292,52 @@
   </si>
   <si>
     <t>83.25kg
+争取本周到82kg
+继续加油</t>
+  </si>
+  <si>
+    <t>酱香的麻辣香锅</t>
+  </si>
+  <si>
+    <t>北京同事来成都，聚聚</t>
+  </si>
+  <si>
+    <t>宇航婚宴请客</t>
+  </si>
+  <si>
+    <t>领导和同事一起聚聚</t>
+  </si>
+  <si>
+    <t>豌杂面 + 青菜 + 豌豆尖 + 鸡腿1</t>
+  </si>
+  <si>
+    <t>鸡腿1</t>
+  </si>
+  <si>
+    <t>豌杂面</t>
+  </si>
+  <si>
+    <t>青菜 + 豌豆尖</t>
+  </si>
+  <si>
+    <t>牛肉 + 西红柿 + 玉米饼</t>
+  </si>
+  <si>
+    <t>玉米饼</t>
+  </si>
+  <si>
+    <t>比较满意，继续加油</t>
+  </si>
+  <si>
+    <t>煎饼道 无酱版</t>
+  </si>
+  <si>
+    <t>比较满意，少薄脆就更好</t>
+  </si>
+  <si>
+    <t>82.95kg
 争取本周到81.5kg
-体重回弹点，继续加油</t>
+继续加油</t>
   </si>
 </sst>
 </file>
@@ -1472,12 +1516,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2263,12 +2307,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomLeft" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6019,7 +6063,7 @@
     </row>
     <row r="196" ht="37.5" spans="1:8">
       <c r="A196" s="3">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>12</v>
@@ -6048,6 +6092,12 @@
       <c r="B197" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C197" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8">
@@ -6055,15 +6105,143 @@
       <c r="B198" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C198" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
+      <c r="G198" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="H198" s="4"/>
     </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="132">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6129,6 +6307,8 @@
     <mergeCell ref="A190:A192"/>
     <mergeCell ref="A193:A195"/>
     <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6192,6 +6372,8 @@
     <mergeCell ref="H190:H192"/>
     <mergeCell ref="H193:H195"/>
     <mergeCell ref="H196:H198"/>
+    <mergeCell ref="H199:H201"/>
+    <mergeCell ref="H202:H204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="415">
   <si>
     <t>时间</t>
   </si>
@@ -1266,7 +1266,7 @@
   </si>
   <si>
     <t>84kg
-争取本周到81.5kg
+争取本周到82kg
 体重回弹点，继续加油</t>
   </si>
   <si>
@@ -1336,7 +1336,27 @@
   </si>
   <si>
     <t>82.95kg
-争取本周到81.5kg
+争取本周到82kg
+继续加油</t>
+  </si>
+  <si>
+    <t>鸡蛋2 + 西红柿1 + 玉米2/3</t>
+  </si>
+  <si>
+    <t>玉米2/3</t>
+  </si>
+  <si>
+    <t>很满意，晚上又补了一个鸡蛋</t>
+  </si>
+  <si>
+    <t>莜面鱼鱼 + 西红柿 + 土豆 + 鸡蛋</t>
+  </si>
+  <si>
+    <t>比较满意，很生活化</t>
+  </si>
+  <si>
+    <t>82.6kg
+争取本周到82kg
 继续加油</t>
   </si>
 </sst>
@@ -2307,12 +2327,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G203" sqref="G203"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6233,15 +6253,69 @@
       <c r="B204" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C204" s="5"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
+      <c r="C204" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="H204" s="5"/>
     </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="134">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6309,6 +6383,7 @@
     <mergeCell ref="A196:A198"/>
     <mergeCell ref="A199:A201"/>
     <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6374,6 +6449,7 @@
     <mergeCell ref="H196:H198"/>
     <mergeCell ref="H199:H201"/>
     <mergeCell ref="H202:H204"/>
+    <mergeCell ref="H205:H207"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="422">
   <si>
     <t>时间</t>
   </si>
@@ -1356,6 +1356,29 @@
   </si>
   <si>
     <t>82.6kg
+争取本周到82kg
+继续加油</t>
+  </si>
+  <si>
+    <t>超级碗 + 辣白菜</t>
+  </si>
+  <si>
+    <t>鸡腿肉</t>
+  </si>
+  <si>
+    <t>红烧排骨 + 米饭 + 蔬菜</t>
+  </si>
+  <si>
+    <t>有待加强，所以今天没减肥</t>
+  </si>
+  <si>
+    <t>吃了两口蛋炒饭</t>
+  </si>
+  <si>
+    <t>早上饿一顿，没事</t>
+  </si>
+  <si>
+    <t>82.65kg
 争取本周到82kg
 继续加油</t>
   </si>
@@ -2327,12 +2350,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -3330,7 +3353,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>45767</v>
       </c>
@@ -3345,7 +3368,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>16</v>
@@ -3356,7 +3379,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>19</v>
@@ -3367,7 +3390,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
         <v>45768</v>
       </c>
@@ -3382,7 +3405,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>16</v>
@@ -3395,7 +3418,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
@@ -6295,11 +6318,21 @@
       <c r="B206" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
+      <c r="C206" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="H206" s="5"/>
     </row>
     <row r="207" spans="1:8">
@@ -6307,15 +6340,63 @@
       <c r="B207" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C207" s="5"/>
+      <c r="C207" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="G207" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="H207" s="5"/>
     </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="136">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6384,6 +6465,7 @@
     <mergeCell ref="A199:A201"/>
     <mergeCell ref="A202:A204"/>
     <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6450,6 +6532,7 @@
     <mergeCell ref="H199:H201"/>
     <mergeCell ref="H202:H204"/>
     <mergeCell ref="H205:H207"/>
+    <mergeCell ref="H208:H210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="435">
   <si>
     <t>时间</t>
   </si>
@@ -1366,21 +1366,62 @@
     <t>鸡腿肉</t>
   </si>
   <si>
+    <t>素椒杂酱面</t>
+  </si>
+  <si>
     <t>红烧排骨 + 米饭 + 蔬菜</t>
   </si>
   <si>
     <t>有待加强，所以今天没减肥</t>
   </si>
   <si>
-    <t>吃了两口蛋炒饭</t>
-  </si>
-  <si>
-    <t>早上饿一顿，没事</t>
-  </si>
-  <si>
-    <t>82.65kg
-争取本周到82kg
+    <t>荞麦面 + 鸡蛋2 + 白菜条</t>
+  </si>
+  <si>
+    <t>白菜条</t>
+  </si>
+  <si>
+    <t>82.50kg
+争取本周到81kg
 继续加油</t>
+  </si>
+  <si>
+    <t>鸡蛋2 + 玉米1 + 煮青菜</t>
+  </si>
+  <si>
+    <t>煮青菜</t>
+  </si>
+  <si>
+    <t>荞麦面 + 鸡蛋 + 煮青菜 + 丸子</t>
+  </si>
+  <si>
+    <t>鸡蛋 + 丸子</t>
+  </si>
+  <si>
+    <t>荞麦面 + 丸子 + 猪肚 + 豌豆尖</t>
+  </si>
+  <si>
+    <t>丸子 + 猪肚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆尖</t>
+  </si>
+  <si>
+    <t>很满意，不吃猪肚更好</t>
+  </si>
+  <si>
+    <t>82.30kg
+争取本周到81kg
+继续加油</t>
+  </si>
+  <si>
+    <t>素椒杂酱面 + 煮青菜 + 黄瓜 + 卤鸡蛋2</t>
+  </si>
+  <si>
+    <t>卤鸡蛋2</t>
+  </si>
+  <si>
+    <t>煮青菜 + 黄瓜</t>
   </si>
 </sst>
 </file>
@@ -1559,12 +1600,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2350,12 +2391,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
+      <selection pane="bottomLeft" activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6331,7 +6372,7 @@
         <v>278</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H206" s="5"/>
     </row>
@@ -6341,34 +6382,40 @@
         <v>19</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H207" s="5"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="3">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="G208" s="4" t="s">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6376,11 +6423,21 @@
       <c r="B209" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
+      <c r="C209" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H209" s="5"/>
     </row>
     <row r="210" spans="1:8">
@@ -6388,15 +6445,123 @@
       <c r="B210" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
+      <c r="C210" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H210" s="5"/>
     </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="212" ht="37.5" spans="1:8">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="140">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6466,6 +6631,8 @@
     <mergeCell ref="A202:A204"/>
     <mergeCell ref="A205:A207"/>
     <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A216"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6533,6 +6700,8 @@
     <mergeCell ref="H202:H204"/>
     <mergeCell ref="H205:H207"/>
     <mergeCell ref="H208:H210"/>
+    <mergeCell ref="H211:H213"/>
+    <mergeCell ref="H214:H216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="438">
   <si>
     <t>时间</t>
   </si>
@@ -1422,6 +1422,17 @@
   </si>
   <si>
     <t>煮青菜 + 黄瓜</t>
+  </si>
+  <si>
+    <t>一个西红柿</t>
+  </si>
+  <si>
+    <t>很满意，昨天吃的有点多</t>
+  </si>
+  <si>
+    <t>82.20kg
+争取本周维持82kg
+继续加油</t>
   </si>
 </sst>
 </file>
@@ -2393,10 +2404,10 @@
   <sheetPr/>
   <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I208" sqref="I208"/>
+      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6524,24 +6535,32 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="3">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C214" s="5"/>
+      <c r="C214" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="D214" s="4"/>
       <c r="E214" s="5"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-      <c r="H214" s="5"/>
+      <c r="G214" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C215" s="5"/>
+      <c r="C215" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="439">
   <si>
     <t>时间</t>
   </si>
@@ -1433,6 +1433,9 @@
     <t>82.20kg
 争取本周维持82kg
 继续加油</t>
+  </si>
+  <si>
+    <t>空一顿，昨天宇航婚礼</t>
   </si>
 </sst>
 </file>
@@ -2402,12 +2405,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6579,8 +6582,52 @@
       <c r="G216" s="4"/>
       <c r="H216" s="5"/>
     </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="142">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6652,6 +6699,7 @@
     <mergeCell ref="A208:A210"/>
     <mergeCell ref="A211:A213"/>
     <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A217:A219"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6721,6 +6769,7 @@
     <mergeCell ref="H208:H210"/>
     <mergeCell ref="H211:H213"/>
     <mergeCell ref="H214:H216"/>
+    <mergeCell ref="H217:H219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="441">
   <si>
     <t>时间</t>
   </si>
@@ -1436,6 +1436,13 @@
   </si>
   <si>
     <t>空一顿，昨天宇航婚礼</t>
+  </si>
+  <si>
+    <t>茶叶蛋2 + 玉米1 + 西红柿2</t>
+  </si>
+  <si>
+    <t>86kg
+争取本周减肥到84kg</t>
   </si>
 </sst>
 </file>
@@ -2405,12 +2412,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
+      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -6626,8 +6633,68 @@
       <c r="G219" s="4"/>
       <c r="H219" s="5"/>
     </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="144">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6700,6 +6767,7 @@
     <mergeCell ref="A211:A213"/>
     <mergeCell ref="A214:A216"/>
     <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A220:A222"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6770,6 +6838,7 @@
     <mergeCell ref="H211:H213"/>
     <mergeCell ref="H214:H216"/>
     <mergeCell ref="H217:H219"/>
+    <mergeCell ref="H220:H222"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="444">
   <si>
     <t>时间</t>
   </si>
@@ -1441,8 +1441,18 @@
     <t>茶叶蛋2 + 玉米1 + 西红柿2</t>
   </si>
   <si>
-    <t>86kg
-争取本周减肥到84kg</t>
+    <t>85kg
+争取本周减肥到83kg</t>
+  </si>
+  <si>
+    <t>土豆1 + 西红柿1 + 鸡腿1 + 鸡蛋1</t>
+  </si>
+  <si>
+    <t>茶叶蛋2 + 玉米2/3 + 西红柿1</t>
+  </si>
+  <si>
+    <t>83.7kg
+争取本周减肥到83kg，继续加油</t>
   </si>
 </sst>
 </file>
@@ -2412,12 +2422,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
+      <selection pane="bottomLeft" activeCell="H223" sqref="H223:H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -2425,9 +2435,8 @@
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -6686,15 +6695,75 @@
       <c r="B222" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
+      <c r="C222" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H222" s="5"/>
     </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="146">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6768,6 +6837,7 @@
     <mergeCell ref="A214:A216"/>
     <mergeCell ref="A217:A219"/>
     <mergeCell ref="A220:A222"/>
+    <mergeCell ref="A223:A225"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6839,6 +6909,7 @@
     <mergeCell ref="H214:H216"/>
     <mergeCell ref="H217:H219"/>
     <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H223:H225"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="449">
   <si>
     <t>时间</t>
   </si>
@@ -1453,6 +1453,23 @@
   <si>
     <t>83.7kg
 争取本周减肥到83kg，继续加油</t>
+  </si>
+  <si>
+    <t>83.1kg
+争取本周减肥到83kg，继续加油</t>
+  </si>
+  <si>
+    <t>三文鱼 + 黄瓜 + 玉米2/3 + 西红柿1</t>
+  </si>
+  <si>
+    <t>三文鱼2块</t>
+  </si>
+  <si>
+    <t>西红柿1 + 黄瓜</t>
+  </si>
+  <si>
+    <t>82.7kg
+本周已达标83kg，冲击下82.5，保持到下周一</t>
   </si>
 </sst>
 </file>
@@ -2422,12 +2439,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H223" sqref="H223:H225"/>
+      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -4036,7 +4053,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" ht="37.5" spans="1:8">
+    <row r="82" ht="56.25" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>16</v>
@@ -6743,11 +6760,21 @@
       <c r="B224" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="5"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
+      <c r="C224" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H224" s="5"/>
     </row>
     <row r="225" spans="1:8">
@@ -6755,15 +6782,145 @@
       <c r="B225" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
+      <c r="C225" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="H225" s="5"/>
     </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="3">
+        <v>46015</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" ht="37.5" spans="1:8">
+      <c r="A229" s="3">
+        <v>46016</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="146">
+  <mergeCells count="150">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6838,6 +6995,8 @@
     <mergeCell ref="A217:A219"/>
     <mergeCell ref="A220:A222"/>
     <mergeCell ref="A223:A225"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A229:A231"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -6910,6 +7069,8 @@
     <mergeCell ref="H217:H219"/>
     <mergeCell ref="H220:H222"/>
     <mergeCell ref="H223:H225"/>
+    <mergeCell ref="H226:H228"/>
+    <mergeCell ref="H229:H231"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2025年上半年减肥记录每一天.xlsx
+++ b/2025年上半年减肥记录每一天.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="459">
   <si>
     <t>时间</t>
   </si>
@@ -1470,6 +1470,37 @@
   <si>
     <t>82.7kg
 本周已达标83kg，冲击下82.5，保持到下周一</t>
+  </si>
+  <si>
+    <t>荞麦面 + 丸子 + 鸡蛋 + 菠菜</t>
+  </si>
+  <si>
+    <t>鸡蛋1 + 7个丸子</t>
+  </si>
+  <si>
+    <t>丸子多了，荞麦面多了1/3</t>
+  </si>
+  <si>
+    <t>5个饺子 + 一个草莓</t>
+  </si>
+  <si>
+    <t>不满意，缺少蔬菜</t>
+  </si>
+  <si>
+    <t>82.7kg
+本周已达标83kg，冲击下82.5，并保持到下周一</t>
+  </si>
+  <si>
+    <t>鸡腿1 + 猪肉 + 混合蔬菜</t>
+  </si>
+  <si>
+    <t>无主食</t>
+  </si>
+  <si>
+    <t>鸡蛋2 + 玉米2/3 + 西红柿2</t>
+  </si>
+  <si>
+    <t>争取到31号稳定在81kg，然后回家过元旦</t>
   </si>
 </sst>
 </file>
@@ -2439,20 +2470,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
+      <selection pane="bottomLeft" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.25" style="1" customWidth="1"/>
@@ -3977,7 +4009,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" ht="37.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="3">
         <v>45777</v>
       </c>
@@ -4053,7 +4085,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" ht="56.25" spans="1:8">
+    <row r="82" ht="37.5" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>16</v>
@@ -4301,7 +4333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" ht="37.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>16</v>
@@ -4445,7 +4477,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" ht="37.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="3">
         <v>45813</v>
       </c>
@@ -4679,7 +4711,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" ht="37.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>19</v>
@@ -5792,7 +5824,7 @@
       </c>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" ht="37.5" spans="1:8">
+    <row r="178" spans="1:8">
       <c r="A178" s="3">
         <v>45946</v>
       </c>
@@ -6869,7 +6901,7 @@
       </c>
       <c r="H228" s="5"/>
     </row>
-    <row r="229" ht="37.5" spans="1:8">
+    <row r="229" spans="1:8">
       <c r="A229" s="3">
         <v>46016</v>
       </c>
@@ -6900,11 +6932,21 @@
       <c r="B230" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
+      <c r="C230" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H230" s="5"/>
     </row>
     <row r="231" spans="1:8">
@@ -6912,15 +6954,147 @@
       <c r="B231" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
+      <c r="C231" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="H231" s="5"/>
     </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="3">
+        <v>46017</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G234" s="4"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="3">
+        <v>46017</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="150">
+  <mergeCells count="154">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6997,6 +7171,8 @@
     <mergeCell ref="A223:A225"/>
     <mergeCell ref="A226:A228"/>
     <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
@@ -7071,6 +7247,8 @@
     <mergeCell ref="H223:H225"/>
     <mergeCell ref="H226:H228"/>
     <mergeCell ref="H229:H231"/>
+    <mergeCell ref="H232:H234"/>
+    <mergeCell ref="H235:H237"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
